--- a/bmc_testbench/hard_instances/avg_hard_d3.xlsx
+++ b/bmc_testbench/hard_instances/avg_hard_d3.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="7640" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="avg_hard_d3.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,14 +30,14 @@
     <t xml:space="preserve"> Python + C (Lower interface)     </t>
   </si>
   <si>
-    <t>Python (sec 4.1)</t>
+    <t>Python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,6 +48,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,14 +86,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -110,20 +134,18 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Mean execution time to</a:t>
+              <a:t>Impact of</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> solve a hard instance</a:t>
+              <a:t> the number of philosophers </a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
+            <a:br>
+              <a:rPr lang="fr-FR" baseline="0"/>
+            </a:br>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t>for a formula of depth 3</a:t>
+              <a:t>on the mean execution time (hard instances)</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -240,7 +262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Python + C (Lower interface)     </c:v>
+                  <c:v>Python</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -293,99 +315,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.97883</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36161</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.68538</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.53675</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>avg_hard_d3.csv!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Python (sec 4.1)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>avg_hard_d3.csv!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>avg_hard_d3.csv!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
                   <c:v>4.24293</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -425,11 +354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143173368"/>
-        <c:axId val="-2143170200"/>
+        <c:axId val="-2121985528"/>
+        <c:axId val="-2110869560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143173368"/>
+        <c:axId val="-2121985528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,11 +371,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Number of philosophers and forks</a:t>
+                  <a:rPr lang="fr-FR" sz="1400"/>
+                  <a:t>Number of philosophers</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -458,12 +387,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143170200"/>
+        <c:crossAx val="-2110869560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143170200"/>
+        <c:axId val="-2110869560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,10 +406,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="1400"/>
                   <a:t>Mean execution time (seconds)</a:t>
                 </a:r>
               </a:p>
@@ -493,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143173368"/>
+        <c:crossAx val="-2121985528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -502,6 +431,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -519,20 +458,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -872,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2</v>
       </c>
@@ -902,13 +841,13 @@
         <v>0.65803999999999996</v>
       </c>
       <c r="C2">
+        <v>4.2429300000000003</v>
+      </c>
+      <c r="F2">
         <v>0.97882999999999998</v>
       </c>
-      <c r="D2">
-        <v>4.2429300000000003</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>3</v>
       </c>
@@ -916,13 +855,13 @@
         <v>6.0940000000000001E-2</v>
       </c>
       <c r="C3">
+        <v>0.28116999999999998</v>
+      </c>
+      <c r="F3">
         <v>0.23018</v>
       </c>
-      <c r="D3">
-        <v>0.28116999999999998</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -930,13 +869,13 @@
         <v>0.11611</v>
       </c>
       <c r="C4">
+        <v>0.36503999999999998</v>
+      </c>
+      <c r="F4">
         <v>0.29413</v>
       </c>
-      <c r="D4">
-        <v>0.36503999999999998</v>
-      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
@@ -944,13 +883,13 @@
         <v>0.17491999999999999</v>
       </c>
       <c r="C5">
+        <v>0.56381000000000003</v>
+      </c>
+      <c r="F5">
         <v>0.36160999999999999</v>
       </c>
-      <c r="D5">
-        <v>0.56381000000000003</v>
-      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>6</v>
       </c>
@@ -958,13 +897,13 @@
         <v>0.28469</v>
       </c>
       <c r="C6">
+        <v>0.6038</v>
+      </c>
+      <c r="F6">
         <v>0.50109000000000004</v>
       </c>
-      <c r="D6">
-        <v>0.6038</v>
-      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
@@ -972,13 +911,13 @@
         <v>0.43763999999999997</v>
       </c>
       <c r="C7">
+        <v>0.80693000000000004</v>
+      </c>
+      <c r="F7">
         <v>0.80810000000000004</v>
       </c>
-      <c r="D7">
-        <v>0.80693000000000004</v>
-      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
@@ -986,13 +925,13 @@
         <v>1.0985100000000001</v>
       </c>
       <c r="C8">
+        <v>1.42418</v>
+      </c>
+      <c r="F8">
         <v>1.8501000000000001</v>
       </c>
-      <c r="D8">
-        <v>1.42418</v>
-      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1000,13 +939,13 @@
         <v>7.0133099999999997</v>
       </c>
       <c r="C9">
+        <v>5.22159</v>
+      </c>
+      <c r="F9">
         <v>7.6853800000000003</v>
       </c>
-      <c r="D9">
-        <v>5.22159</v>
-      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1014,14 +953,15 @@
         <v>72.422200000000004</v>
       </c>
       <c r="C10">
+        <v>40.083179999999999</v>
+      </c>
+      <c r="F10">
         <v>70.536749999999998</v>
-      </c>
-      <c r="D10">
-        <v>40.083179999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
